--- a/我的论文/KD/KD_OPTION_C100.xlsx
+++ b/我的论文/KD/KD_OPTION_C100.xlsx
@@ -42,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -59,16 +59,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,6 +102,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -101,9 +117,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,10 +134,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,11 +156,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,33 +172,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,16 +194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,25 +210,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,145 +348,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,13 +404,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,6 +445,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,8 +487,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,46 +497,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,10 +509,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,133 +521,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -977,16 +977,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="S10" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="18" max="19" width="12.8888888888889"/>
     <col min="21" max="22" width="12.8888888888889"/>
+    <col min="23" max="24" width="14.1111111111111"/>
   </cols>
   <sheetData>
     <row r="1" spans="18:18">
@@ -1111,7 +1112,7 @@
         <f t="shared" ref="U15:U20" si="0">AVERAGE(F15:T15)</f>
         <v>73.2746666666667</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="1">
         <f t="shared" ref="V15:V20" si="1">STDEV(F15:T15)</f>
         <v>0.221516418826062</v>
       </c>
@@ -1178,7 +1179,7 @@
         <f t="shared" si="0"/>
         <v>76.176</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="1">
         <f t="shared" si="1"/>
         <v>0.215996031709583</v>
       </c>
@@ -1245,7 +1246,7 @@
         <f t="shared" si="0"/>
         <v>74.6586666666667</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="1">
         <f t="shared" si="1"/>
         <v>0.12362770532453</v>
       </c>
@@ -1312,7 +1313,7 @@
         <f t="shared" si="0"/>
         <v>74.574</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="1">
         <f t="shared" si="1"/>
         <v>0.16387277294989</v>
       </c>
@@ -1379,7 +1380,7 @@
         <f t="shared" si="0"/>
         <v>71.1673333333333</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="1">
         <f t="shared" si="1"/>
         <v>0.120206172094132</v>
       </c>
@@ -1446,12 +1447,20 @@
         <f t="shared" si="0"/>
         <v>75.3193333333333</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="1">
         <f t="shared" si="1"/>
         <v>0.159349869634028</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="21" spans="21:22">
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="21:22">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1459,8 +1468,10 @@
         <v>6</v>
       </c>
       <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1474,8 +1485,10 @@
         <v>5</v>
       </c>
       <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1534,15 +1547,23 @@
         <v>73.17</v>
       </c>
       <c r="U25" s="1">
-        <f>AVERAGE(F25:T25)</f>
+        <f t="shared" ref="U25:U30" si="2">AVERAGE(F25:T25)</f>
         <v>73.2746666666667</v>
       </c>
-      <c r="V25">
-        <f>STDEV(F25:T25)</f>
+      <c r="V25" s="1">
+        <f t="shared" ref="V25:V30" si="3">STDEV(F25:T25)</f>
         <v>0.221516418826062</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" s="1">
+        <f>U25-U15</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <f>V25-V15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1556,60 +1577,69 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>75.69</v>
+        <v>75.55</v>
       </c>
       <c r="G26">
-        <v>75.84</v>
+        <v>75.59</v>
       </c>
       <c r="H26">
-        <v>75.79</v>
+        <v>75.4</v>
       </c>
       <c r="I26">
-        <v>75.76</v>
+        <v>75.41</v>
       </c>
       <c r="J26">
-        <v>75.77</v>
+        <v>75.49</v>
       </c>
       <c r="K26">
+        <v>75.81</v>
+      </c>
+      <c r="L26">
+        <v>75.75</v>
+      </c>
+      <c r="M26">
+        <v>75.9</v>
+      </c>
+      <c r="N26">
+        <v>75.91</v>
+      </c>
+      <c r="O26">
+        <v>75.81</v>
+      </c>
+      <c r="P26">
+        <v>76</v>
+      </c>
+      <c r="Q26">
+        <v>76.22</v>
+      </c>
+      <c r="R26">
+        <v>76.05</v>
+      </c>
+      <c r="S26">
+        <v>76.1</v>
+      </c>
+      <c r="T26">
         <v>76.17</v>
       </c>
-      <c r="L26">
-        <v>76.26</v>
-      </c>
-      <c r="M26">
-        <v>76.34</v>
-      </c>
-      <c r="N26">
-        <v>76.2</v>
-      </c>
-      <c r="O26">
-        <v>76.14</v>
-      </c>
-      <c r="P26">
-        <v>75.49</v>
-      </c>
-      <c r="Q26">
-        <v>75.52</v>
-      </c>
-      <c r="R26">
-        <v>75.54</v>
-      </c>
-      <c r="S26">
-        <v>75.77</v>
-      </c>
-      <c r="T26">
-        <v>75.71</v>
-      </c>
       <c r="U26" s="1">
-        <f>AVERAGE(F26:T26)</f>
-        <v>75.866</v>
-      </c>
-      <c r="V26">
-        <f>STDEV(F26:T26)</f>
-        <v>0.282559728199192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <f t="shared" si="2"/>
+        <v>75.8106666666667</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.273037586807245</v>
+      </c>
+      <c r="W26" s="1">
+        <f>U26-U16</f>
+        <v>-0.365333333333339</v>
+      </c>
+      <c r="X26" s="1">
+        <f>V26-V16</f>
+        <v>0.057041555097662</v>
+      </c>
+      <c r="AL26" s="1"/>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1668,15 +1698,23 @@
         <v>75.7</v>
       </c>
       <c r="U27" s="1">
-        <f>AVERAGE(F27:T27)</f>
+        <f t="shared" si="2"/>
         <v>75.6873333333333</v>
       </c>
-      <c r="V27">
-        <f>STDEV(F27:T27)</f>
+      <c r="V27" s="1">
+        <f t="shared" si="3"/>
         <v>0.0869701645612408</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" s="1">
+        <f>U27-U17</f>
+        <v>1.0286666666666</v>
+      </c>
+      <c r="X27" s="1">
+        <f>V27-V17</f>
+        <v>-0.0366575407632892</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1735,15 +1773,23 @@
         <v>74.11</v>
       </c>
       <c r="U28" s="1">
-        <f>AVERAGE(F28:T28)</f>
+        <f t="shared" si="2"/>
         <v>74.2326666666667</v>
       </c>
-      <c r="V28">
-        <f>STDEV(F28:T28)</f>
+      <c r="V28" s="1">
+        <f t="shared" si="3"/>
         <v>0.266577961436817</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28" s="1">
+        <f>U28-U18</f>
+        <v>-0.341333333333296</v>
+      </c>
+      <c r="X28" s="1">
+        <f>V28-V18</f>
+        <v>0.102705188486927</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1802,15 +1848,23 @@
         <v>71.17</v>
       </c>
       <c r="U29" s="1">
-        <f>AVERAGE(F29:T29)</f>
+        <f t="shared" si="2"/>
         <v>71.1673333333333</v>
       </c>
-      <c r="V29">
-        <f>STDEV(F29:T29)</f>
+      <c r="V29" s="1">
+        <f t="shared" si="3"/>
         <v>0.120206172094132</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29" s="1">
+        <f>U29-U19</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <f>V29-V19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1869,12 +1923,75 @@
         <v>75.4</v>
       </c>
       <c r="U30" s="1">
-        <f>AVERAGE(F30:T30)</f>
+        <f t="shared" si="2"/>
         <v>75.5926666666667</v>
       </c>
-      <c r="V30">
-        <f>STDEV(F30:T30)</f>
+      <c r="V30" s="1">
+        <f t="shared" si="3"/>
         <v>0.122734711975909</v>
+      </c>
+      <c r="W30" s="1">
+        <f>U30-U20</f>
+        <v>0.273333333333397</v>
+      </c>
+      <c r="X30" s="1">
+        <f>V30-V20</f>
+        <v>-0.036615157658119</v>
+      </c>
+    </row>
+    <row r="32" spans="6:22">
+      <c r="F32">
+        <v>75.69</v>
+      </c>
+      <c r="G32">
+        <v>75.84</v>
+      </c>
+      <c r="H32">
+        <v>75.79</v>
+      </c>
+      <c r="I32">
+        <v>75.76</v>
+      </c>
+      <c r="J32">
+        <v>75.77</v>
+      </c>
+      <c r="K32">
+        <v>76.17</v>
+      </c>
+      <c r="L32">
+        <v>76.26</v>
+      </c>
+      <c r="M32">
+        <v>76.34</v>
+      </c>
+      <c r="N32">
+        <v>76.2</v>
+      </c>
+      <c r="O32">
+        <v>76.14</v>
+      </c>
+      <c r="P32">
+        <v>75.49</v>
+      </c>
+      <c r="Q32">
+        <v>75.52</v>
+      </c>
+      <c r="R32">
+        <v>75.54</v>
+      </c>
+      <c r="S32">
+        <v>75.77</v>
+      </c>
+      <c r="T32">
+        <v>75.71</v>
+      </c>
+      <c r="U32" s="1">
+        <f>AVERAGE(F32:T32)</f>
+        <v>75.866</v>
+      </c>
+      <c r="V32">
+        <f>STDEV(F32:T32)</f>
+        <v>0.282559728199192</v>
       </c>
     </row>
   </sheetData>
